--- a/data/trans_camb/P23_DUKE_AF_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_AF_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,13</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,14</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-18,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-8,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-14,11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-8,49</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-3,88</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-6,55</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 5,23</t>
+          <t>-20,73; 30,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,96; 1,32</t>
+          <t>-24,25; 28,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 10,08</t>
+          <t>-24,53; 28,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 9,89</t>
+          <t>-39,73; 0,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 4,01</t>
+          <t>-28,5; 11,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 2,67</t>
+          <t>-36,09; 6,01</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-25,95; 8,5</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-20,95; 13,7</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-22,85; 9,65</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-46,69%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-62,0%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>-29,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-23,92%</t>
+          <t>-12,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-36,4%</t>
+          <t>-22,32%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-14,77%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-6,75%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-11,4%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-87,77; 89,49</t>
+          <t>-34,75; 90,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-93,77; 57,11</t>
+          <t>-39,22; 78,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-67,95; 202,87</t>
+          <t>-40,61; 83,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-71,31; 189,88</t>
+          <t>-54,34; 2,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,77; 56,35</t>
+          <t>-40,78; 19,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-72,68; 43,0</t>
+          <t>-51,01; 10,49</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-41,41; 15,77</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-32,56; 28,35</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-35,17; 19,78</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>9,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,89</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-11,09</t>
+          <t>25,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-11,54</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,41</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14,5</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 26,9</t>
+          <t>-14,8; 38,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 41,52</t>
+          <t>-22,1; 35,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 0,15</t>
+          <t>5,42; 52,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,24; -0,57</t>
+          <t>-13,54; 20,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 10,05</t>
+          <t>-19,13; 16,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 17,94</t>
+          <t>-17,22; 18,63</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,21; 25,93</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-14,33; 20,28</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 32,7</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>111,6%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-47,81%</t>
+          <t>38,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-49,78%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,56%</t>
+          <t>-2,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,39%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20,59%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-74,25; 568,42</t>
+          <t>-19,45; 83,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-74,15; 861,02</t>
+          <t>-29,56; 78,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,48; 13,7</t>
+          <t>6,11; 127,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-77,83; 0,79</t>
+          <t>-15,28; 31,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,57; 84,74</t>
+          <t>-22,87; 24,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,59; 137,99</t>
+          <t>-21,61; 28,48</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-9,11; 44,6</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-18,38; 32,96</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 57,22</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-11,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,45</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,39</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,47</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-4,75</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,57; 13,12</t>
+          <t>-18,4; 11,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,48; 18,21</t>
+          <t>-12,7; 15,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 5,48</t>
+          <t>-27,16; 3,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 6,35</t>
+          <t>-1,96; 22,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 6,49</t>
+          <t>-4,07; 20,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,27; 8,88</t>
+          <t>-13,87; 12,23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,4; 14,48</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 14,29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-14,89; 6,07</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-10,49%</t>
+          <t>-4,81%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-10,78%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-15,47%</t>
+          <t>-13,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,51%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-13,22%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-10,97%</t>
+          <t>-1,14%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5,89%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-6,37%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-54,11; 63,83</t>
+          <t>-20,92; 15,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,54; 87,81</t>
+          <t>-14,17; 22,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,37; 34,38</t>
+          <t>-31,68; 3,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-45,09; 36,37</t>
+          <t>-2,65; 36,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,46; 31,55</t>
+          <t>-5,11; 32,94</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,97; 43,35</t>
+          <t>-18,17; 18,8</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; 21,13</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-5,73; 20,52</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-18,77; 8,44</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>-7,69</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>-10,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,25</t>
+          <t>-7,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,78</t>
+          <t>-6,96</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>-5,02</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-8,85</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-6,25</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 15,53</t>
+          <t>-20,92; 6,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 11,21</t>
+          <t>-24,04; 2,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 18,87</t>
+          <t>-20,73; 5,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 14,6</t>
+          <t>-4,41; 15,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 13,69</t>
+          <t>-19,27; 4,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 10,54</t>
+          <t>-17,6; 5,91</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-8,32; 7,29</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-18,29; -0,08</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-15,46; 2,18</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>37,22%</t>
+          <t>-9,42%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>-13,36%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>32,24%</t>
+          <t>-9,33%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>-8,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>-6,17%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-0,5%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-10,85%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-7,66%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,87; 178,43</t>
+          <t>-24,35; 9,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,01; 123,49</t>
+          <t>-28,83; 3,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 97,0</t>
+          <t>-24,08; 7,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 68,91</t>
+          <t>-5,03; 21,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 79,59</t>
+          <t>-22,17; 5,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 60,99</t>
+          <t>-20,73; 7,44</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-9,81; 9,49</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-21,57; -0,34</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-17,92; 2,98</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>9,67</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>13,11</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13,31</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>14,61</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>10,29</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>7,94</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6,97</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>6,64</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 22,0</t>
+          <t>-7,23; 28,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 10,83</t>
+          <t>-4,8; 29,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,43; 24,89</t>
+          <t>-12,08; 24,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,94; 25,95</t>
+          <t>-24,69; 15,08</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,32; 19,73</t>
+          <t>-20,58; 17,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 14,5</t>
+          <t>-9,57; 29,64</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-10,47; 16,76</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,44; 19,44</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,15; 20,19</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>43,14%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-17,28%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>127,12%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>139,56%</t>
+          <t>-8,47%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>76,26%</t>
+          <t>-1,98%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>12,15%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4,92%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>11,0%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>10,48%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,58; 183,2</t>
+          <t>-10,35; 57,28</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-61,63; 106,0</t>
+          <t>-6,59; 58,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>19,3; 382,01</t>
+          <t>-16,99; 47,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>26,11; 426,64</t>
+          <t>-34,48; 27,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>10,22; 180,03</t>
+          <t>-28,12; 32,2</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 141,31</t>
+          <t>-12,18; 55,79</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-15,12; 29,04</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-7,66; 34,9</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 35,45</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-18,21</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>-12,86</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-4,86</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>8,88</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>7,94</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-4,91</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-1,78</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>6,57</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,48; 10,54</t>
+          <t>-40,79; 8,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 6,18</t>
+          <t>-36,06; 13,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-20,15; 8,66</t>
+          <t>-14,92; 29,39</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 44,77</t>
+          <t>-17,42; 31,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 5,7</t>
+          <t>-16,43; 32,64</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 28,2</t>
+          <t>-17,74; 31,6</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-24,57; 13,35</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-18,58; 16,58</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-9,88; 23,49</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-11,96%</t>
+          <t>-26,32%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-30,03%</t>
+          <t>-18,58%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-24,18%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>44,2%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-18,92%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>15,87%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-8,25%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-3,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>11,04%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-72,64; 118,19</t>
+          <t>-55,04; 13,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-77,8; 68,63</t>
+          <t>-47,81; 23,03</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-71,66; 73,63</t>
+          <t>-17,79; 53,9</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-56,57; 447,41</t>
+          <t>-27,6; 89,84</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-57,44; 41,5</t>
+          <t>-26,19; 89,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-50,01; 237,6</t>
+          <t>-28,42; 93,18</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-36,8; 25,47</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-28,47; 32,25</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-13,9; 47,03</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-2,15</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 7,91</t>
+          <t>-9,5; 8,47</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 7,87</t>
+          <t>-10,26; 9,29</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 5,08</t>
+          <t>-4,64; 13,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 10,62</t>
+          <t>-4,82; 8,68</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,82</t>
+          <t>-7,11; 6,17</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 6,01</t>
+          <t>-9,47; 4,48</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 6,34</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-6,41; 5,14</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 6,6</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>-1,43%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>-3,08%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1,07%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-0,98%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1,26%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-26,69; 52,74</t>
+          <t>-12,65; 12,7</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-34,09; 54,05</t>
+          <t>-13,86; 14,15</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,8; 30,23</t>
+          <t>-6,48; 20,21</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 57,92</t>
+          <t>-6,48; 13,11</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 28,96</t>
+          <t>-9,76; 9,22</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 35,99</t>
+          <t>-13,02; 6,71</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-6,74; 9,58</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; 7,72</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-6,72; 10,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
